--- a/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_03_invalid.xlsx
+++ b/profiles/gsq/scripts/geochemxl/tests/data/GeochemXL-v3.0-VALIDATION_DICTIONARY_03_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Work/gsq/gsq-geochem/profiles/gsq/scripts/geochemxl/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA2DD4-D5CA-6648-ACF8-73D9F3D58D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36FFE15-FAEA-D446-8996-C5868E810152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47400" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47400" yWindow="500" windowWidth="41600" windowHeight="21100" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE_NOTES" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
+    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
     <customWorkbookView name="TANG Joseph - Personal View" guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1928" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="842" activeSheetId="13"/>
-    <customWorkbookView name="HOY Derek - Personal View" guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="917" activeSheetId="6" showComments="commIndAndComment"/>
-    <customWorkbookView name="KELLY Vance - Personal View" guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" mergeInterval="0" personalView="1" maximized="1" xWindow="2391" yWindow="-678" windowWidth="2418" windowHeight="1368" tabRatio="842" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="DAVIES Rhys - Personal View" guid="{853B6239-A439-411F-9927-AA08BF431DBB}" mergeInterval="0" personalView="1" xWindow="2926" yWindow="109" windowWidth="2700" windowHeight="1354" tabRatio="842" activeSheetId="9"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1247">
   <si>
     <t>FIELD</t>
   </si>
@@ -2007,15 +2007,6 @@
     <t>CURRENT_CLASS</t>
   </si>
   <si>
-    <t>EXPLORATION</t>
-  </si>
-  <si>
-    <t>APPRAISAL</t>
-  </si>
-  <si>
-    <t>DEVELOPMENT</t>
-  </si>
-  <si>
     <t>Data for the project and resource authority common to all other templates. This must be completed prior to filling other templates. All locations throughout the templates must be referenced to the coordinate system specified in this template.</t>
   </si>
   <si>
@@ -3778,18 +3769,6 @@
   </si>
   <si>
     <t>SAMPLE_PXRF</t>
-  </si>
-  <si>
-    <t>BEDROCK</t>
-  </si>
-  <si>
-    <t>TRENCHING</t>
-  </si>
-  <si>
-    <t>GEOTECHNICAL</t>
-  </si>
-  <si>
-    <t>METALLURGICAL</t>
   </si>
   <si>
     <t>VERSION 3.0</t>
@@ -3882,6 +3861,30 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>EXPLORATION CLASS</t>
+  </si>
+  <si>
+    <t>APPRAISAL CLASS</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT CLASS</t>
+  </si>
+  <si>
+    <t>WATER CLASS</t>
+  </si>
+  <si>
+    <t>BEDROCK CLASS</t>
+  </si>
+  <si>
+    <t>TRENCHING CLASS</t>
+  </si>
+  <si>
+    <t>GEOTECHNICAL CLASS</t>
+  </si>
+  <si>
+    <t>METALLURGICAL CLASS</t>
   </si>
 </sst>
 </file>
@@ -5529,14 +5532,14 @@
     <row r="3" spans="2:23" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="13"/>
       <c r="C3" s="93" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13"/>
       <c r="C4" s="110" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
@@ -5556,14 +5559,14 @@
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
       <c r="C7" s="15" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -5585,7 +5588,7 @@
     <row r="12" spans="2:23" ht="224.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="117" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="118"/>
@@ -5665,7 +5668,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F20" s="96" t="s">
         <v>3</v>
@@ -5768,10 +5771,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="122"/>
       <c r="D27" s="21" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="F27" s="96" t="s">
         <v>30</v>
@@ -5831,7 +5834,7 @@
         <v>594</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F31" s="96" t="s">
         <v>3</v>
@@ -5845,7 +5848,7 @@
         <v>593</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="F32" s="96" t="s">
         <v>3</v>
@@ -5856,10 +5859,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="122"/>
       <c r="D33" s="21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="F33" s="96" t="s">
         <v>3</v>
@@ -5870,10 +5873,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="122"/>
       <c r="D34" s="21" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F34" s="96" t="s">
         <v>30</v>
@@ -5884,10 +5887,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="122"/>
       <c r="D35" s="21" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F35" s="96" t="s">
         <v>3</v>
@@ -5912,7 +5915,7 @@
       <c r="B37" s="13"/>
       <c r="C37" s="122"/>
       <c r="D37" s="21" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>597</v>
@@ -5926,10 +5929,10 @@
       <c r="B38" s="13"/>
       <c r="C38" s="122"/>
       <c r="D38" s="21" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>30</v>
@@ -6007,7 +6010,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E46" s="111"/>
       <c r="F46" s="112"/>
@@ -6043,7 +6046,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E49" s="111"/>
       <c r="F49" s="112"/>
@@ -6084,23 +6087,23 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
-      <selection activeCell="M20" sqref="M20"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
+      <selection activeCell="E25" sqref="E25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="70" showGridLines="0" topLeftCell="A25">
+      <selection activeCell="L19" sqref="L19"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0" topLeftCell="A34">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="70" showGridLines="0" topLeftCell="A25">
-      <selection activeCell="L19" sqref="L19"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70" showGridLines="0" topLeftCell="A20">
-      <selection activeCell="E25" sqref="E25"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="70" showGridLines="0" topLeftCell="A43">
+      <selection activeCell="M20" sqref="M20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -6164,10 +6167,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" state="veryHidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" state="veryHidden">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -6182,8 +6185,8 @@
   </sheetPr>
   <dimension ref="A1:X566"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6217,7 +6220,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G1" s="87"/>
     </row>
@@ -6244,7 +6247,7 @@
         <v>151</v>
       </c>
       <c r="N3" s="36" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="T3" s="36" t="s">
         <v>601</v>
@@ -6270,7 +6273,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="G4" s="94" t="s">
         <v>630</v>
@@ -6279,28 +6282,28 @@
         <v>162</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J4" s="94" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L4" s="94" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M4" s="94" t="s">
         <v>537</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="O4" s="94" t="s">
         <v>589</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="Q4" s="94" t="s">
         <v>601</v>
@@ -6312,7 +6315,7 @@
         <v>587</v>
       </c>
       <c r="T4" s="94" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="U4" s="94" t="s">
         <v>185</v>
@@ -6324,7 +6327,7 @@
         <v>196</v>
       </c>
       <c r="X4" s="94" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -6344,10 +6347,10 @@
         <v>616</v>
       </c>
       <c r="F5" s="97" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G5" s="97" t="s">
-        <v>631</v>
+        <v>1239</v>
       </c>
       <c r="H5" s="97" t="s">
         <v>163</v>
@@ -6359,34 +6362,34 @@
         <v>18</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="L5" s="97" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="M5" s="99" t="s">
         <v>538</v>
       </c>
       <c r="N5" s="97" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O5" s="97" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P5" s="100" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="Q5" s="97" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="R5" s="97" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="S5" s="97" t="s">
         <v>404</v>
       </c>
       <c r="T5" s="97" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="U5" s="97" t="s">
         <v>436</v>
@@ -6398,7 +6401,7 @@
         <v>189</v>
       </c>
       <c r="X5" s="97" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
@@ -6415,52 +6418,52 @@
         <v>583</v>
       </c>
       <c r="E6" s="97" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G6" s="97" t="s">
-        <v>632</v>
+        <v>1240</v>
       </c>
       <c r="H6" s="97" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J6" s="98" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="L6" s="97" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="M6" s="99" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="N6" s="97" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="O6" s="97" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P6" s="100" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Q6" s="97" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="R6" s="97" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="S6" s="97" t="s">
         <v>591</v>
       </c>
       <c r="T6" s="97" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="U6" s="97" t="s">
         <v>456</v>
@@ -6472,7 +6475,7 @@
         <v>190</v>
       </c>
       <c r="X6" s="97" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
@@ -6480,7 +6483,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C7" s="97" t="s">
         <v>20</v>
@@ -6489,13 +6492,13 @@
         <v>584</v>
       </c>
       <c r="E7" s="97" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G7" s="97" t="s">
-        <v>633</v>
+        <v>1241</v>
       </c>
       <c r="H7" s="97" t="s">
         <v>165</v>
@@ -6507,37 +6510,37 @@
         <v>127</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="L7" s="97" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="M7" s="99" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="O7" s="97" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P7" s="100" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="Q7" s="97" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="R7" s="97" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="S7" s="97" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="T7" s="97" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="U7" s="97" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="V7" s="97" t="s">
         <v>612</v>
@@ -6546,7 +6549,7 @@
         <v>191</v>
       </c>
       <c r="X7" s="97" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -6554,7 +6557,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C8" s="97" t="s">
         <v>628</v>
@@ -6563,13 +6566,13 @@
         <v>617</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>144</v>
+        <v>1242</v>
       </c>
       <c r="H8" s="97" t="s">
         <v>166</v>
@@ -6578,37 +6581,37 @@
         <v>143</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="K8" s="99" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="L8" s="97" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="N8" s="97" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="O8" s="97" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="P8" s="100" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="Q8" s="97" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="S8" s="97" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="T8" s="97" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="U8" s="97" t="s">
         <v>438</v>
@@ -6624,7 +6627,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="97"/>
       <c r="B9" s="107" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C9" s="97" t="s">
         <v>22</v>
@@ -6633,13 +6636,13 @@
         <v>618</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F9" s="97" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="G9" s="97" t="s">
-        <v>1222</v>
+        <v>1243</v>
       </c>
       <c r="H9" s="97" t="s">
         <v>629</v>
@@ -6651,37 +6654,37 @@
         <v>129</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="L9" s="97" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="M9" s="99" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="N9" s="97" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O9" s="97" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="P9" s="100" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="Q9" s="97" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="R9" s="97" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="S9" s="97" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="U9" s="97" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="V9" s="97" t="s">
         <v>614</v>
@@ -6694,7 +6697,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="97"/>
       <c r="B10" s="107" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="97" t="s">
@@ -6704,49 +6707,49 @@
         <v>615</v>
       </c>
       <c r="F10" s="97" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="G10" s="97" t="s">
-        <v>1223</v>
+        <v>1244</v>
       </c>
       <c r="H10" s="97" t="s">
         <v>177</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="J10" s="98" t="s">
         <v>128</v>
       </c>
       <c r="K10" s="99" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="L10" s="97" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="99" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="N10" s="97" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="O10" s="97" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="P10" s="100" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="Q10" s="97" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="R10" s="97" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="S10" s="97" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="T10" s="97" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="U10" s="97" t="s">
         <v>439</v>
@@ -6760,58 +6763,58 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="97"/>
       <c r="B11" s="107" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="97" t="s">
         <v>620</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="G11" s="97" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
       <c r="H11" s="97" t="s">
         <v>176</v>
       </c>
       <c r="I11" s="97"/>
       <c r="J11" s="98" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="L11" s="97" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="M11" s="99" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="N11" s="97" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="100" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="Q11" s="97" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="R11" s="97" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="S11" s="97" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="T11" s="97" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="U11" s="97" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="V11" s="97"/>
       <c r="W11" s="97" t="s">
@@ -6822,56 +6825,56 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="97"/>
       <c r="B12" s="107" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="97" t="s">
         <v>621</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>1225</v>
+        <v>1246</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="97"/>
       <c r="J12" s="98" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="K12" s="99" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="M12" s="99" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="N12" s="97" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="100" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="S12" s="97" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="T12" s="97" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="U12" s="97" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="V12" s="97"/>
       <c r="W12" s="97"/>
@@ -6884,47 +6887,47 @@
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="97" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F13" s="97" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="G13" s="97"/>
       <c r="H13" s="97"/>
       <c r="I13" s="97"/>
       <c r="J13" s="98" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="K13" s="99" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M13" s="99" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="N13" s="97" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="100" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="Q13" s="97" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="R13" s="97" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="S13" s="97" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="T13" s="97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="U13" s="97" t="s">
         <v>440</v>
@@ -6941,40 +6944,40 @@
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
       <c r="E14" s="97" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F14" s="97" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="97"/>
       <c r="H14" s="97"/>
       <c r="I14" s="97"/>
       <c r="J14" s="98"/>
       <c r="K14" s="99" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M14" s="97"/>
       <c r="N14" s="97" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="100" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="Q14" s="97" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="R14" s="97" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="S14" s="97" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="T14" s="97" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="U14" s="97" t="s">
         <v>441</v>
@@ -6986,45 +6989,45 @@
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="97"/>
       <c r="B15" s="107" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="97" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F15" s="97" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="G15" s="97"/>
       <c r="H15" s="97"/>
       <c r="I15" s="97"/>
       <c r="J15" s="101"/>
       <c r="K15" s="99" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="L15" s="97" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="M15" s="97"/>
       <c r="N15" s="97" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="100" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="Q15" s="97" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="R15" s="97" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="S15" s="97" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="T15" s="97" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="U15" s="97" t="s">
         <v>442</v>
@@ -7036,7 +7039,7 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="97"/>
       <c r="B16" s="107" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
@@ -7044,7 +7047,7 @@
         <v>622</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G16" s="97"/>
       <c r="H16" s="97"/>
@@ -7054,25 +7057,25 @@
         <v>141</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="M16" s="97"/>
       <c r="N16" s="97" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="100" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="Q16" s="97" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="S16" s="97"/>
       <c r="T16" s="97" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="U16" s="97" t="s">
         <v>444</v>
@@ -7084,41 +7087,41 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="97"/>
       <c r="B17" s="107" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="G17" s="97"/>
       <c r="H17" s="97"/>
       <c r="I17" s="97"/>
       <c r="J17" s="97"/>
       <c r="K17" s="99" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="M17" s="97"/>
       <c r="N17" s="97" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="100" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Q17" s="97" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="R17" s="97" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="S17" s="97"/>
       <c r="T17" s="97"/>
@@ -7132,41 +7135,41 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="97"/>
       <c r="B18" s="107" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F18" s="97" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="97"/>
       <c r="I18" s="97"/>
       <c r="J18" s="97"/>
       <c r="K18" s="99" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="M18" s="97"/>
       <c r="N18" s="97" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="100" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="Q18" s="97" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="R18" s="97" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="S18" s="97"/>
       <c r="T18" s="97"/>
@@ -7180,41 +7183,41 @@
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="97"/>
       <c r="B19" s="107" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="97" t="s">
         <v>585</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="G19" s="97"/>
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
       <c r="J19" s="97"/>
       <c r="K19" s="99" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L19" s="97" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="M19" s="97"/>
       <c r="N19" s="97" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="100" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="Q19" s="97" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="R19" s="97" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="S19" s="97"/>
       <c r="T19" s="97"/>
@@ -7228,42 +7231,42 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="97"/>
       <c r="B20" s="107" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
       <c r="E20" s="97" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="G20" s="97"/>
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
       <c r="J20" s="97"/>
       <c r="K20" s="99" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="M20" s="97"/>
       <c r="N20" s="97"/>
       <c r="O20" s="97"/>
       <c r="P20" s="100" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="Q20" s="97" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="R20" s="97" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="S20" s="97"/>
       <c r="T20" s="97"/>
       <c r="U20" s="97" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="V20" s="97"/>
       <c r="W20" s="97"/>
@@ -7275,32 +7278,32 @@
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G21" s="97"/>
       <c r="H21" s="97"/>
       <c r="I21" s="97"/>
       <c r="J21" s="97"/>
       <c r="K21" s="99" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="M21" s="97"/>
       <c r="N21" s="97"/>
       <c r="O21" s="97"/>
       <c r="P21" s="100" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Q21" s="97" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="R21" s="97" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="S21" s="97"/>
       <c r="T21" s="97"/>
@@ -7317,32 +7320,32 @@
       <c r="C22" s="97"/>
       <c r="D22" s="97"/>
       <c r="E22" s="97" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G22" s="97"/>
       <c r="H22" s="97"/>
       <c r="I22" s="97"/>
       <c r="J22" s="97"/>
       <c r="K22" s="99" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M22" s="97"/>
       <c r="N22" s="97"/>
       <c r="O22" s="97"/>
       <c r="P22" s="100" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="Q22" s="97" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="R22" s="97" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="S22" s="97"/>
       <c r="T22" s="97"/>
@@ -7360,29 +7363,29 @@
       <c r="D23" s="97"/>
       <c r="E23" s="97"/>
       <c r="F23" s="97" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G23" s="97"/>
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
       <c r="J23" s="97"/>
       <c r="K23" s="99" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="M23" s="97"/>
       <c r="N23" s="97"/>
       <c r="O23" s="97"/>
       <c r="P23" s="100" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="Q23" s="97" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="R23" s="97" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="S23" s="97"/>
       <c r="T23" s="97"/>
@@ -7400,34 +7403,34 @@
       <c r="D24" s="97"/>
       <c r="E24" s="97"/>
       <c r="F24" s="97" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
       <c r="J24" s="97"/>
       <c r="K24" s="99" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="O24" s="97"/>
       <c r="P24" s="100" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="Q24" s="97" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="S24" s="97"/>
       <c r="T24" s="97"/>
       <c r="U24" s="97" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="V24" s="97"/>
       <c r="W24" s="97"/>
@@ -7440,34 +7443,34 @@
       <c r="D25" s="97"/>
       <c r="E25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
       <c r="K25" s="99" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
       <c r="P25" s="100" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Q25" s="97" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="R25" s="97" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="S25" s="97"/>
       <c r="T25" s="97"/>
       <c r="U25" s="97" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="V25" s="97"/>
       <c r="W25" s="97"/>
@@ -7480,34 +7483,34 @@
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
       <c r="F26" s="97" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G26" s="97"/>
       <c r="H26" s="97"/>
       <c r="I26" s="97"/>
       <c r="J26" s="97"/>
       <c r="K26" s="99" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L26" s="97" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="M26" s="97"/>
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
       <c r="P26" s="100" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q26" s="97" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="R26" s="97" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="S26" s="97"/>
       <c r="T26" s="97"/>
       <c r="U26" s="97" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="V26" s="97"/>
       <c r="W26" s="97"/>
@@ -7520,29 +7523,29 @@
       <c r="D27" s="97"/>
       <c r="E27" s="97"/>
       <c r="F27" s="97" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="G27" s="97"/>
       <c r="H27" s="97"/>
       <c r="I27" s="97"/>
       <c r="J27" s="97"/>
       <c r="K27" s="99" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="L27" s="97" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="M27" s="97"/>
       <c r="N27" s="97"/>
       <c r="O27" s="97"/>
       <c r="P27" s="100" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Q27" s="97" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="R27" s="97" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="S27" s="97"/>
       <c r="T27" s="97"/>
@@ -7560,7 +7563,7 @@
       <c r="D28" s="97"/>
       <c r="E28" s="97"/>
       <c r="F28" s="97" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G28" s="97"/>
       <c r="H28" s="97"/>
@@ -7570,24 +7573,24 @@
         <v>129</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="M28" s="97"/>
       <c r="N28" s="97"/>
       <c r="O28" s="97"/>
       <c r="P28" s="100" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q28" s="97" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="R28" s="97" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="S28" s="97"/>
       <c r="T28" s="97"/>
       <c r="U28" s="97" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="V28" s="97"/>
       <c r="W28" s="97"/>
@@ -7600,34 +7603,34 @@
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
       <c r="F29" s="97" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G29" s="97"/>
       <c r="H29" s="97"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
       <c r="K29" s="99" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="L29" s="97" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M29" s="97"/>
       <c r="N29" s="97"/>
       <c r="O29" s="97"/>
       <c r="P29" s="100" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="Q29" s="97" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="R29" s="97" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="S29" s="97"/>
       <c r="T29" s="97"/>
       <c r="U29" s="97" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="V29" s="97"/>
       <c r="W29" s="97"/>
@@ -7640,34 +7643,34 @@
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
       <c r="F30" s="97" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G30" s="97"/>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
       <c r="J30" s="97"/>
       <c r="K30" s="99" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="L30" s="97" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="M30" s="97"/>
       <c r="N30" s="97"/>
       <c r="O30" s="97"/>
       <c r="P30" s="100" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q30" s="97" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="R30" s="97" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="S30" s="97"/>
       <c r="T30" s="97"/>
       <c r="U30" s="97" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="V30" s="97"/>
       <c r="W30" s="97"/>
@@ -7680,29 +7683,29 @@
       <c r="D31" s="97"/>
       <c r="E31" s="97"/>
       <c r="F31" s="97" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G31" s="97"/>
       <c r="H31" s="97"/>
       <c r="I31" s="97"/>
       <c r="J31" s="97"/>
       <c r="K31" s="99" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="L31" s="97" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="M31" s="97"/>
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
       <c r="P31" s="100" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="Q31" s="97" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="R31" s="97" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="S31" s="97"/>
       <c r="T31" s="97"/>
@@ -7720,29 +7723,29 @@
       <c r="D32" s="97"/>
       <c r="E32" s="97"/>
       <c r="F32" s="97" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97"/>
       <c r="J32" s="97"/>
       <c r="K32" s="99" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M32" s="97"/>
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
       <c r="P32" s="100" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="Q32" s="97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="R32" s="97" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="S32" s="97"/>
       <c r="T32" s="97"/>
@@ -7760,29 +7763,29 @@
       <c r="D33" s="97"/>
       <c r="E33" s="97"/>
       <c r="F33" s="97" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G33" s="97"/>
       <c r="H33" s="97"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
       <c r="K33" s="99" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="L33" s="97" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="M33" s="97"/>
       <c r="N33" s="97"/>
       <c r="O33" s="97"/>
       <c r="P33" s="100" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="Q33" s="97" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="R33" s="97" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="S33" s="97"/>
       <c r="T33" s="97"/>
@@ -7800,29 +7803,29 @@
       <c r="D34" s="97"/>
       <c r="E34" s="97"/>
       <c r="F34" s="97" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
       <c r="I34" s="97"/>
       <c r="J34" s="97"/>
       <c r="K34" s="99" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="L34" s="97" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="97"/>
       <c r="O34" s="97"/>
       <c r="P34" s="100" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="Q34" s="97" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="R34" s="97" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="S34" s="97"/>
       <c r="T34" s="97"/>
@@ -7840,29 +7843,29 @@
       <c r="D35" s="97"/>
       <c r="E35" s="97"/>
       <c r="F35" s="97" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="G35" s="97"/>
       <c r="H35" s="97"/>
       <c r="I35" s="97"/>
       <c r="J35" s="97"/>
       <c r="K35" s="99" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="L35" s="97" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="M35" s="97"/>
       <c r="N35" s="97"/>
       <c r="O35" s="97"/>
       <c r="P35" s="100" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="Q35" s="97" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="R35" s="97" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="S35" s="97"/>
       <c r="T35" s="97"/>
@@ -7880,34 +7883,34 @@
       <c r="D36" s="97"/>
       <c r="E36" s="97"/>
       <c r="F36" s="97" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G36" s="97"/>
       <c r="H36" s="97"/>
       <c r="I36" s="97"/>
       <c r="J36" s="97"/>
       <c r="K36" s="99" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="L36" s="97" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M36" s="97"/>
       <c r="N36" s="97"/>
       <c r="O36" s="97"/>
       <c r="P36" s="100" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="Q36" s="97" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="R36" s="97" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="S36" s="97"/>
       <c r="T36" s="97"/>
       <c r="U36" s="97" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="V36" s="97"/>
       <c r="W36" s="97"/>
@@ -7920,34 +7923,34 @@
       <c r="D37" s="97"/>
       <c r="E37" s="97"/>
       <c r="F37" s="97" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="G37" s="97"/>
       <c r="H37" s="97"/>
       <c r="I37" s="97"/>
       <c r="J37" s="97"/>
       <c r="K37" s="99" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="L37" s="97" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="M37" s="97"/>
       <c r="N37" s="97"/>
       <c r="O37" s="97"/>
       <c r="P37" s="100" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Q37" s="97" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="R37" s="97" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="S37" s="97"/>
       <c r="T37" s="97"/>
       <c r="U37" s="97" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="V37" s="97"/>
       <c r="W37" s="97"/>
@@ -7960,34 +7963,34 @@
       <c r="D38" s="97"/>
       <c r="E38" s="97"/>
       <c r="F38" s="97" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="G38" s="97"/>
       <c r="H38" s="97"/>
       <c r="I38" s="97"/>
       <c r="J38" s="97"/>
       <c r="K38" s="99" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="L38" s="97" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="M38" s="97"/>
       <c r="N38" s="97"/>
       <c r="O38" s="97"/>
       <c r="P38" s="100" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="Q38" s="97" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="R38" s="97" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="S38" s="97"/>
       <c r="T38" s="97"/>
       <c r="U38" s="97" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="V38" s="97"/>
       <c r="W38" s="97"/>
@@ -8000,7 +8003,7 @@
       <c r="D39" s="97"/>
       <c r="E39" s="97"/>
       <c r="F39" s="97" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="G39" s="97"/>
       <c r="H39" s="97"/>
@@ -8008,24 +8011,24 @@
       <c r="J39" s="97"/>
       <c r="K39" s="97"/>
       <c r="L39" s="97" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="M39" s="97"/>
       <c r="N39" s="97"/>
       <c r="O39" s="97"/>
       <c r="P39" s="100" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="Q39" s="97" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="R39" s="97" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="S39" s="97"/>
       <c r="T39" s="97"/>
       <c r="U39" s="97" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="V39" s="97"/>
       <c r="W39" s="97"/>
@@ -8038,7 +8041,7 @@
       <c r="D40" s="97"/>
       <c r="E40" s="97"/>
       <c r="F40" s="97" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="G40" s="97"/>
       <c r="H40" s="97"/>
@@ -8046,24 +8049,24 @@
       <c r="J40" s="97"/>
       <c r="K40" s="97"/>
       <c r="L40" s="97" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M40" s="97"/>
       <c r="N40" s="97"/>
       <c r="O40" s="97"/>
       <c r="P40" s="100" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Q40" s="97" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="R40" s="97" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S40" s="97"/>
       <c r="T40" s="97"/>
       <c r="U40" s="97" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="V40" s="97"/>
       <c r="W40" s="97"/>
@@ -8076,7 +8079,7 @@
       <c r="D41" s="97"/>
       <c r="E41" s="97"/>
       <c r="F41" s="97" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="G41" s="97"/>
       <c r="H41" s="97"/>
@@ -8084,19 +8087,19 @@
       <c r="J41" s="97"/>
       <c r="K41" s="97"/>
       <c r="L41" s="97" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="M41" s="97"/>
       <c r="N41" s="97"/>
       <c r="O41" s="97"/>
       <c r="P41" s="100" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="Q41" s="97" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="R41" s="97" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="S41" s="97"/>
       <c r="T41" s="97"/>
@@ -8114,7 +8117,7 @@
       <c r="D42" s="97"/>
       <c r="E42" s="97"/>
       <c r="F42" s="97" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="G42" s="97"/>
       <c r="H42" s="97"/>
@@ -8122,24 +8125,24 @@
       <c r="J42" s="97"/>
       <c r="K42" s="97"/>
       <c r="L42" s="97" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="M42" s="97"/>
       <c r="N42" s="97"/>
       <c r="O42" s="97"/>
       <c r="P42" s="100" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Q42" s="97" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="R42" s="97" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="S42" s="97"/>
       <c r="T42" s="97"/>
       <c r="U42" s="97" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="V42" s="97"/>
       <c r="W42" s="97"/>
@@ -8152,7 +8155,7 @@
       <c r="D43" s="97"/>
       <c r="E43" s="97"/>
       <c r="F43" s="97" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="G43" s="97"/>
       <c r="H43" s="97"/>
@@ -8160,19 +8163,19 @@
       <c r="J43" s="97"/>
       <c r="K43" s="97"/>
       <c r="L43" s="97" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="M43" s="97"/>
       <c r="N43" s="97"/>
       <c r="O43" s="97"/>
       <c r="P43" s="100" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="Q43" s="97" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="R43" s="97" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="S43" s="97"/>
       <c r="T43" s="97"/>
@@ -8190,7 +8193,7 @@
       <c r="D44" s="97"/>
       <c r="E44" s="97"/>
       <c r="F44" s="97" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="97"/>
@@ -8198,19 +8201,19 @@
       <c r="J44" s="97"/>
       <c r="K44" s="97"/>
       <c r="L44" s="97" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="M44" s="97"/>
       <c r="N44" s="97"/>
       <c r="O44" s="97"/>
       <c r="P44" s="100" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="Q44" s="97" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="R44" s="97" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="S44" s="97"/>
       <c r="T44" s="97"/>
@@ -8228,7 +8231,7 @@
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
       <c r="F45" s="97" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="G45" s="97"/>
       <c r="H45" s="97"/>
@@ -8236,24 +8239,24 @@
       <c r="J45" s="97"/>
       <c r="K45" s="97"/>
       <c r="L45" s="97" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="M45" s="97"/>
       <c r="N45" s="97"/>
       <c r="O45" s="97"/>
       <c r="P45" s="100" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="Q45" s="97" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="R45" s="97" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="S45" s="97"/>
       <c r="T45" s="97"/>
       <c r="U45" s="97" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="V45" s="97"/>
       <c r="W45" s="97"/>
@@ -8272,24 +8275,24 @@
       <c r="J46" s="97"/>
       <c r="K46" s="97"/>
       <c r="L46" s="97" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="M46" s="97"/>
       <c r="N46" s="97"/>
       <c r="O46" s="97"/>
       <c r="P46" s="100" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="Q46" s="97" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="R46" s="97" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="S46" s="97"/>
       <c r="T46" s="97"/>
       <c r="U46" s="97" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="V46" s="97"/>
       <c r="W46" s="97"/>
@@ -8308,19 +8311,19 @@
       <c r="J47" s="97"/>
       <c r="K47" s="97"/>
       <c r="L47" s="97" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M47" s="97"/>
       <c r="N47" s="97"/>
       <c r="O47" s="97"/>
       <c r="P47" s="100" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="Q47" s="97" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="R47" s="97" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="S47" s="97"/>
       <c r="T47" s="97"/>
@@ -8344,22 +8347,22 @@
       <c r="J48" s="97"/>
       <c r="K48" s="97"/>
       <c r="L48" s="97" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97"/>
       <c r="O48" s="97"/>
       <c r="P48" s="97"/>
       <c r="Q48" s="97" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="R48" s="97" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="S48" s="97"/>
       <c r="T48" s="97"/>
       <c r="U48" s="97" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="V48" s="97"/>
       <c r="W48" s="97"/>
@@ -8378,22 +8381,22 @@
       <c r="J49" s="97"/>
       <c r="K49" s="97"/>
       <c r="L49" s="97" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M49" s="97"/>
       <c r="N49" s="97"/>
       <c r="O49" s="97"/>
       <c r="P49" s="97"/>
       <c r="Q49" s="97" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="R49" s="97" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="S49" s="97"/>
       <c r="T49" s="97"/>
       <c r="U49" s="97" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="V49" s="97"/>
       <c r="W49" s="97"/>
@@ -8412,17 +8415,17 @@
       <c r="J50" s="97"/>
       <c r="K50" s="97"/>
       <c r="L50" s="97" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M50" s="97"/>
       <c r="N50" s="97"/>
       <c r="O50" s="97"/>
       <c r="P50" s="97"/>
       <c r="Q50" s="97" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="R50" s="97" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="S50" s="97"/>
       <c r="T50" s="97"/>
@@ -8446,22 +8449,22 @@
       <c r="J51" s="97"/>
       <c r="K51" s="97"/>
       <c r="L51" s="97" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="97"/>
       <c r="O51" s="97"/>
       <c r="P51" s="97"/>
       <c r="Q51" s="97" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="R51" s="97" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="S51" s="97"/>
       <c r="T51" s="97"/>
       <c r="U51" s="97" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="V51" s="97"/>
       <c r="W51" s="97"/>
@@ -8480,17 +8483,17 @@
       <c r="J52" s="97"/>
       <c r="K52" s="97"/>
       <c r="L52" s="97" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M52" s="97"/>
       <c r="N52" s="97"/>
       <c r="O52" s="97"/>
       <c r="P52" s="97"/>
       <c r="Q52" s="97" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="R52" s="97" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="S52" s="97"/>
       <c r="T52" s="97"/>
@@ -8514,22 +8517,22 @@
       <c r="J53" s="97"/>
       <c r="K53" s="97"/>
       <c r="L53" s="97" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="M53" s="97"/>
       <c r="N53" s="97"/>
       <c r="O53" s="97"/>
       <c r="P53" s="97"/>
       <c r="Q53" s="97" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="R53" s="97" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="S53" s="97"/>
       <c r="T53" s="97"/>
       <c r="U53" s="97" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="V53" s="97"/>
       <c r="W53" s="97"/>
@@ -8548,22 +8551,22 @@
       <c r="J54" s="97"/>
       <c r="K54" s="97"/>
       <c r="L54" s="97" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M54" s="97"/>
       <c r="N54" s="97"/>
       <c r="O54" s="97"/>
       <c r="P54" s="97"/>
       <c r="Q54" s="97" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="R54" s="97" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="S54" s="97"/>
       <c r="T54" s="97"/>
       <c r="U54" s="97" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="V54" s="97"/>
       <c r="W54" s="97"/>
@@ -8582,17 +8585,17 @@
       <c r="J55" s="97"/>
       <c r="K55" s="97"/>
       <c r="L55" s="97" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M55" s="97"/>
       <c r="N55" s="97"/>
       <c r="O55" s="97"/>
       <c r="P55" s="97"/>
       <c r="Q55" s="97" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="R55" s="97" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="S55" s="97"/>
       <c r="T55" s="97"/>
@@ -8616,17 +8619,17 @@
       <c r="J56" s="97"/>
       <c r="K56" s="97"/>
       <c r="L56" s="97" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M56" s="97"/>
       <c r="N56" s="97"/>
       <c r="O56" s="97"/>
       <c r="P56" s="97"/>
       <c r="Q56" s="97" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="R56" s="97" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="S56" s="97"/>
       <c r="T56" s="97"/>
@@ -8650,22 +8653,22 @@
       <c r="J57" s="97"/>
       <c r="K57" s="97"/>
       <c r="L57" s="97" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M57" s="97"/>
       <c r="N57" s="97"/>
       <c r="O57" s="97"/>
       <c r="P57" s="97"/>
       <c r="Q57" s="97" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="R57" s="97" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="S57" s="97"/>
       <c r="T57" s="97"/>
       <c r="U57" s="97" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="V57" s="97"/>
       <c r="W57" s="97"/>
@@ -8684,17 +8687,17 @@
       <c r="J58" s="97"/>
       <c r="K58" s="97"/>
       <c r="L58" s="97" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M58" s="97"/>
       <c r="N58" s="97"/>
       <c r="O58" s="97"/>
       <c r="P58" s="97"/>
       <c r="Q58" s="97" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="R58" s="97" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="S58" s="97"/>
       <c r="T58" s="97"/>
@@ -8718,17 +8721,17 @@
       <c r="J59" s="97"/>
       <c r="K59" s="97"/>
       <c r="L59" s="97" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M59" s="97"/>
       <c r="N59" s="97"/>
       <c r="O59" s="97"/>
       <c r="P59" s="97"/>
       <c r="Q59" s="97" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="R59" s="97" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="S59" s="97"/>
       <c r="T59" s="97"/>
@@ -8752,17 +8755,17 @@
       <c r="J60" s="97"/>
       <c r="K60" s="97"/>
       <c r="L60" s="97" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M60" s="97"/>
       <c r="N60" s="97"/>
       <c r="O60" s="97"/>
       <c r="P60" s="97"/>
       <c r="Q60" s="97" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="R60" s="97" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="S60" s="97"/>
       <c r="T60" s="97"/>
@@ -8786,17 +8789,17 @@
       <c r="J61" s="97"/>
       <c r="K61" s="97"/>
       <c r="L61" s="97" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M61" s="97"/>
       <c r="N61" s="97"/>
       <c r="O61" s="97"/>
       <c r="P61" s="97"/>
       <c r="Q61" s="97" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="R61" s="97" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="S61" s="97"/>
       <c r="T61" s="97"/>
@@ -8820,17 +8823,17 @@
       <c r="J62" s="97"/>
       <c r="K62" s="97"/>
       <c r="L62" s="97" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M62" s="97"/>
       <c r="N62" s="97"/>
       <c r="O62" s="97"/>
       <c r="P62" s="97"/>
       <c r="Q62" s="97" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="R62" s="97" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="S62" s="97"/>
       <c r="T62" s="97"/>
@@ -8854,22 +8857,22 @@
       <c r="J63" s="97"/>
       <c r="K63" s="97"/>
       <c r="L63" s="97" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M63" s="97"/>
       <c r="N63" s="97"/>
       <c r="O63" s="97"/>
       <c r="P63" s="97"/>
       <c r="Q63" s="97" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="R63" s="97" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="S63" s="97"/>
       <c r="T63" s="97"/>
       <c r="U63" s="97" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="V63" s="97"/>
       <c r="W63" s="97"/>
@@ -8888,17 +8891,17 @@
       <c r="J64" s="97"/>
       <c r="K64" s="97"/>
       <c r="L64" s="97" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M64" s="97"/>
       <c r="N64" s="97"/>
       <c r="O64" s="97"/>
       <c r="P64" s="97"/>
       <c r="Q64" s="97" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="R64" s="97" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="S64" s="97"/>
       <c r="T64" s="97"/>
@@ -8922,7 +8925,7 @@
       <c r="J65" s="97"/>
       <c r="K65" s="97"/>
       <c r="L65" s="97" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="M65" s="97"/>
       <c r="N65" s="97"/>
@@ -8930,7 +8933,7 @@
       <c r="P65" s="97"/>
       <c r="Q65" s="97"/>
       <c r="R65" s="97" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="S65" s="97"/>
       <c r="T65" s="97"/>
@@ -8954,7 +8957,7 @@
       <c r="J66" s="97"/>
       <c r="K66" s="97"/>
       <c r="L66" s="97" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M66" s="97"/>
       <c r="N66" s="97"/>
@@ -8962,12 +8965,12 @@
       <c r="P66" s="97"/>
       <c r="Q66" s="97"/>
       <c r="R66" s="97" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="S66" s="97"/>
       <c r="T66" s="97"/>
       <c r="U66" s="97" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="V66" s="97"/>
       <c r="W66" s="97"/>
@@ -8986,7 +8989,7 @@
       <c r="J67" s="97"/>
       <c r="K67" s="97"/>
       <c r="L67" s="97" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="M67" s="97"/>
       <c r="N67" s="97"/>
@@ -8994,7 +8997,7 @@
       <c r="P67" s="97"/>
       <c r="Q67" s="97"/>
       <c r="R67" s="97" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="S67" s="97"/>
       <c r="T67" s="97"/>
@@ -9018,7 +9021,7 @@
       <c r="J68" s="97"/>
       <c r="K68" s="97"/>
       <c r="L68" s="97" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M68" s="97"/>
       <c r="N68" s="97"/>
@@ -9026,12 +9029,12 @@
       <c r="P68" s="97"/>
       <c r="Q68" s="97"/>
       <c r="R68" s="97" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="S68" s="97"/>
       <c r="T68" s="97"/>
       <c r="U68" s="97" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="V68" s="97"/>
       <c r="W68" s="97"/>
@@ -9050,7 +9053,7 @@
       <c r="J69" s="97"/>
       <c r="K69" s="97"/>
       <c r="L69" s="97" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M69" s="97"/>
       <c r="N69" s="97"/>
@@ -9058,7 +9061,7 @@
       <c r="P69" s="97"/>
       <c r="Q69" s="97"/>
       <c r="R69" s="97" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="S69" s="97"/>
       <c r="T69" s="97"/>
@@ -9082,7 +9085,7 @@
       <c r="J70" s="97"/>
       <c r="K70" s="97"/>
       <c r="L70" s="97" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="M70" s="97"/>
       <c r="N70" s="97"/>
@@ -9090,7 +9093,7 @@
       <c r="P70" s="97"/>
       <c r="Q70" s="97"/>
       <c r="R70" s="97" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="S70" s="97"/>
       <c r="T70" s="97"/>
@@ -9114,7 +9117,7 @@
       <c r="J71" s="97"/>
       <c r="K71" s="97"/>
       <c r="L71" s="97" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M71" s="97"/>
       <c r="N71" s="97"/>
@@ -9122,7 +9125,7 @@
       <c r="P71" s="97"/>
       <c r="Q71" s="97"/>
       <c r="R71" s="97" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="S71" s="97"/>
       <c r="T71" s="97"/>
@@ -9146,7 +9149,7 @@
       <c r="J72" s="97"/>
       <c r="K72" s="97"/>
       <c r="L72" s="97" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="M72" s="97"/>
       <c r="N72" s="97"/>
@@ -9154,12 +9157,12 @@
       <c r="P72" s="97"/>
       <c r="Q72" s="97"/>
       <c r="R72" s="97" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="S72" s="97"/>
       <c r="T72" s="97"/>
       <c r="U72" s="97" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="V72" s="97"/>
       <c r="W72" s="97"/>
@@ -9178,7 +9181,7 @@
       <c r="J73" s="97"/>
       <c r="K73" s="97"/>
       <c r="L73" s="97" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="M73" s="97"/>
       <c r="N73" s="97"/>
@@ -9186,7 +9189,7 @@
       <c r="P73" s="97"/>
       <c r="Q73" s="97"/>
       <c r="R73" s="97" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="S73" s="97"/>
       <c r="T73" s="97"/>
@@ -9210,7 +9213,7 @@
       <c r="J74" s="97"/>
       <c r="K74" s="97"/>
       <c r="L74" s="97" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M74" s="97"/>
       <c r="N74" s="97"/>
@@ -9218,12 +9221,12 @@
       <c r="P74" s="97"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="S74" s="97"/>
       <c r="T74" s="97"/>
       <c r="U74" s="97" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="V74" s="97"/>
       <c r="W74" s="97"/>
@@ -9242,7 +9245,7 @@
       <c r="J75" s="97"/>
       <c r="K75" s="97"/>
       <c r="L75" s="97" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M75" s="97"/>
       <c r="N75" s="97"/>
@@ -9272,7 +9275,7 @@
       <c r="J76" s="97"/>
       <c r="K76" s="97"/>
       <c r="L76" s="97" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M76" s="97"/>
       <c r="N76" s="97"/>
@@ -9302,7 +9305,7 @@
       <c r="J77" s="97"/>
       <c r="K77" s="97"/>
       <c r="L77" s="97" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M77" s="97"/>
       <c r="N77" s="97"/>
@@ -9313,7 +9316,7 @@
       <c r="S77" s="97"/>
       <c r="T77" s="97"/>
       <c r="U77" s="97" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="V77" s="97"/>
       <c r="W77" s="97"/>
@@ -9332,7 +9335,7 @@
       <c r="J78" s="97"/>
       <c r="K78" s="97"/>
       <c r="L78" s="97" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M78" s="97"/>
       <c r="N78" s="97"/>
@@ -9362,7 +9365,7 @@
       <c r="J79" s="97"/>
       <c r="K79" s="97"/>
       <c r="L79" s="97" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M79" s="97"/>
       <c r="N79" s="97"/>
@@ -9373,7 +9376,7 @@
       <c r="S79" s="97"/>
       <c r="T79" s="97"/>
       <c r="U79" s="97" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="V79" s="97"/>
       <c r="W79" s="97"/>
@@ -9392,7 +9395,7 @@
       <c r="J80" s="97"/>
       <c r="K80" s="97"/>
       <c r="L80" s="97" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M80" s="97"/>
       <c r="N80" s="97"/>
@@ -9403,7 +9406,7 @@
       <c r="S80" s="97"/>
       <c r="T80" s="97"/>
       <c r="U80" s="97" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="V80" s="97"/>
       <c r="W80" s="97"/>
@@ -9422,7 +9425,7 @@
       <c r="J81" s="97"/>
       <c r="K81" s="97"/>
       <c r="L81" s="97" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="M81" s="97"/>
       <c r="N81" s="97"/>
@@ -9452,7 +9455,7 @@
       <c r="J82" s="97"/>
       <c r="K82" s="97"/>
       <c r="L82" s="97" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M82" s="97"/>
       <c r="N82" s="97"/>
@@ -9463,7 +9466,7 @@
       <c r="S82" s="97"/>
       <c r="T82" s="97"/>
       <c r="U82" s="97" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="V82" s="97"/>
       <c r="W82" s="97"/>
@@ -9482,7 +9485,7 @@
       <c r="J83" s="97"/>
       <c r="K83" s="97"/>
       <c r="L83" s="97" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="M83" s="97"/>
       <c r="N83" s="97"/>
@@ -9493,7 +9496,7 @@
       <c r="S83" s="97"/>
       <c r="T83" s="97"/>
       <c r="U83" s="97" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="V83" s="97"/>
       <c r="W83" s="97"/>
@@ -9512,7 +9515,7 @@
       <c r="J84" s="97"/>
       <c r="K84" s="97"/>
       <c r="L84" s="97" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M84" s="97"/>
       <c r="N84" s="97"/>
@@ -9523,7 +9526,7 @@
       <c r="S84" s="97"/>
       <c r="T84" s="97"/>
       <c r="U84" s="97" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="V84" s="97"/>
       <c r="W84" s="97"/>
@@ -9542,7 +9545,7 @@
       <c r="J85" s="97"/>
       <c r="K85" s="97"/>
       <c r="L85" s="97" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M85" s="97"/>
       <c r="N85" s="97"/>
@@ -9572,7 +9575,7 @@
       <c r="J86" s="97"/>
       <c r="K86" s="97"/>
       <c r="L86" s="97" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M86" s="97"/>
       <c r="N86" s="97"/>
@@ -9602,7 +9605,7 @@
       <c r="J87" s="97"/>
       <c r="K87" s="97"/>
       <c r="L87" s="97" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M87" s="97"/>
       <c r="N87" s="97"/>
@@ -9613,7 +9616,7 @@
       <c r="S87" s="97"/>
       <c r="T87" s="97"/>
       <c r="U87" s="97" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="V87" s="97"/>
       <c r="W87" s="97"/>
@@ -9632,7 +9635,7 @@
       <c r="J88" s="97"/>
       <c r="K88" s="97"/>
       <c r="L88" s="97" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M88" s="97"/>
       <c r="N88" s="97"/>
@@ -9662,7 +9665,7 @@
       <c r="J89" s="97"/>
       <c r="K89" s="97"/>
       <c r="L89" s="97" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M89" s="97"/>
       <c r="N89" s="97"/>
@@ -9692,7 +9695,7 @@
       <c r="J90" s="97"/>
       <c r="K90" s="97"/>
       <c r="L90" s="97" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M90" s="97"/>
       <c r="N90" s="97"/>
@@ -9703,7 +9706,7 @@
       <c r="S90" s="97"/>
       <c r="T90" s="97"/>
       <c r="U90" s="97" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="V90" s="97"/>
       <c r="W90" s="97"/>
@@ -9722,7 +9725,7 @@
       <c r="J91" s="97"/>
       <c r="K91" s="97"/>
       <c r="L91" s="97" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="M91" s="97"/>
       <c r="N91" s="97"/>
@@ -9752,7 +9755,7 @@
       <c r="J92" s="97"/>
       <c r="K92" s="97"/>
       <c r="L92" s="97" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M92" s="97"/>
       <c r="N92" s="97"/>
@@ -9782,7 +9785,7 @@
       <c r="J93" s="97"/>
       <c r="K93" s="97"/>
       <c r="L93" s="97" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M93" s="97"/>
       <c r="N93" s="97"/>
@@ -9812,7 +9815,7 @@
       <c r="J94" s="97"/>
       <c r="K94" s="97"/>
       <c r="L94" s="97" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M94" s="97"/>
       <c r="N94" s="97"/>
@@ -9823,7 +9826,7 @@
       <c r="S94" s="97"/>
       <c r="T94" s="97"/>
       <c r="U94" s="97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="V94" s="97"/>
       <c r="W94" s="97"/>
@@ -9842,7 +9845,7 @@
       <c r="J95" s="97"/>
       <c r="K95" s="97"/>
       <c r="L95" s="97" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="M95" s="97"/>
       <c r="N95" s="97"/>
@@ -9853,7 +9856,7 @@
       <c r="S95" s="97"/>
       <c r="T95" s="97"/>
       <c r="U95" s="97" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="V95" s="97"/>
       <c r="W95" s="97"/>
@@ -9872,7 +9875,7 @@
       <c r="J96" s="97"/>
       <c r="K96" s="97"/>
       <c r="L96" s="97" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M96" s="97"/>
       <c r="N96" s="97"/>
@@ -9902,7 +9905,7 @@
       <c r="J97" s="97"/>
       <c r="K97" s="97"/>
       <c r="L97" s="97" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M97" s="97"/>
       <c r="N97" s="97"/>
@@ -9932,7 +9935,7 @@
       <c r="J98" s="97"/>
       <c r="K98" s="97"/>
       <c r="L98" s="97" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M98" s="97"/>
       <c r="N98" s="97"/>
@@ -9943,7 +9946,7 @@
       <c r="S98" s="97"/>
       <c r="T98" s="97"/>
       <c r="U98" s="97" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="V98" s="97"/>
       <c r="W98" s="97"/>
@@ -9962,7 +9965,7 @@
       <c r="J99" s="97"/>
       <c r="K99" s="97"/>
       <c r="L99" s="97" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="M99" s="97"/>
       <c r="N99" s="97"/>
@@ -9973,7 +9976,7 @@
       <c r="S99" s="97"/>
       <c r="T99" s="97"/>
       <c r="U99" s="97" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="V99" s="97"/>
       <c r="W99" s="97"/>
@@ -9992,7 +9995,7 @@
       <c r="J100" s="97"/>
       <c r="K100" s="97"/>
       <c r="L100" s="97" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="M100" s="97"/>
       <c r="N100" s="97"/>
@@ -10003,7 +10006,7 @@
       <c r="S100" s="97"/>
       <c r="T100" s="97"/>
       <c r="U100" s="97" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="V100" s="97"/>
       <c r="W100" s="97"/>
@@ -10022,7 +10025,7 @@
       <c r="J101" s="97"/>
       <c r="K101" s="97"/>
       <c r="L101" s="97" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M101" s="97"/>
       <c r="N101" s="97"/>
@@ -10052,7 +10055,7 @@
       <c r="J102" s="97"/>
       <c r="K102" s="97"/>
       <c r="L102" s="97" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="M102" s="97"/>
       <c r="N102" s="97"/>
@@ -10082,7 +10085,7 @@
       <c r="J103" s="97"/>
       <c r="K103" s="97"/>
       <c r="L103" s="97" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="M103" s="97"/>
       <c r="N103" s="97"/>
@@ -10112,7 +10115,7 @@
       <c r="J104" s="97"/>
       <c r="K104" s="97"/>
       <c r="L104" s="97" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="M104" s="97"/>
       <c r="N104" s="97"/>
@@ -10123,7 +10126,7 @@
       <c r="S104" s="97"/>
       <c r="T104" s="97"/>
       <c r="U104" s="97" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="V104" s="97"/>
       <c r="W104" s="97"/>
@@ -10142,7 +10145,7 @@
       <c r="J105" s="97"/>
       <c r="K105" s="97"/>
       <c r="L105" s="97" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M105" s="97"/>
       <c r="N105" s="97"/>
@@ -10153,7 +10156,7 @@
       <c r="S105" s="97"/>
       <c r="T105" s="97"/>
       <c r="U105" s="97" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="V105" s="97"/>
       <c r="W105" s="97"/>
@@ -10172,7 +10175,7 @@
       <c r="J106" s="97"/>
       <c r="K106" s="97"/>
       <c r="L106" s="97" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="M106" s="97"/>
       <c r="N106" s="97"/>
@@ -10183,7 +10186,7 @@
       <c r="S106" s="97"/>
       <c r="T106" s="97"/>
       <c r="U106" s="97" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="V106" s="97"/>
       <c r="W106" s="97"/>
@@ -10202,7 +10205,7 @@
       <c r="J107" s="97"/>
       <c r="K107" s="97"/>
       <c r="L107" s="97" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M107" s="97"/>
       <c r="N107" s="97"/>
@@ -10241,7 +10244,7 @@
       <c r="S108" s="97"/>
       <c r="T108" s="97"/>
       <c r="U108" s="97" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="V108" s="97"/>
       <c r="W108" s="97"/>
@@ -10409,7 +10412,7 @@
       <c r="S114" s="97"/>
       <c r="T114" s="97"/>
       <c r="U114" s="97" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="V114" s="97"/>
       <c r="W114" s="97"/>
@@ -10437,7 +10440,7 @@
       <c r="S115" s="97"/>
       <c r="T115" s="97"/>
       <c r="U115" s="97" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="V115" s="97"/>
       <c r="W115" s="97"/>
@@ -10493,7 +10496,7 @@
       <c r="S117" s="97"/>
       <c r="T117" s="97"/>
       <c r="U117" s="97" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="V117" s="97"/>
       <c r="W117" s="97"/>
@@ -10549,7 +10552,7 @@
       <c r="S119" s="97"/>
       <c r="T119" s="97"/>
       <c r="U119" s="97" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="V119" s="97"/>
       <c r="W119" s="97"/>
@@ -10577,7 +10580,7 @@
       <c r="S120" s="97"/>
       <c r="T120" s="97"/>
       <c r="U120" s="97" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="V120" s="97"/>
       <c r="W120" s="97"/>
@@ -10605,7 +10608,7 @@
       <c r="S121" s="97"/>
       <c r="T121" s="97"/>
       <c r="U121" s="97" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="V121" s="97"/>
       <c r="W121" s="97"/>
@@ -10661,7 +10664,7 @@
       <c r="S123" s="97"/>
       <c r="T123" s="97"/>
       <c r="U123" s="97" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V123" s="97"/>
       <c r="W123" s="97"/>
@@ -10689,7 +10692,7 @@
       <c r="S124" s="97"/>
       <c r="T124" s="97"/>
       <c r="U124" s="97" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="V124" s="97"/>
       <c r="W124" s="97"/>
@@ -10745,7 +10748,7 @@
       <c r="S126" s="97"/>
       <c r="T126" s="97"/>
       <c r="U126" s="97" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="V126" s="97"/>
       <c r="W126" s="97"/>
@@ -10829,7 +10832,7 @@
       <c r="S129" s="97"/>
       <c r="T129" s="97"/>
       <c r="U129" s="97" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="V129" s="97"/>
       <c r="W129" s="97"/>
@@ -10857,7 +10860,7 @@
       <c r="S130" s="97"/>
       <c r="T130" s="97"/>
       <c r="U130" s="97" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V130" s="97"/>
       <c r="W130" s="97"/>
@@ -10885,7 +10888,7 @@
       <c r="S131" s="97"/>
       <c r="T131" s="97"/>
       <c r="U131" s="97" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="V131" s="97"/>
       <c r="W131" s="97"/>
@@ -10913,7 +10916,7 @@
       <c r="S132" s="97"/>
       <c r="T132" s="97"/>
       <c r="U132" s="97" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="V132" s="97"/>
       <c r="W132" s="97"/>
@@ -10997,7 +11000,7 @@
       <c r="S135" s="97"/>
       <c r="T135" s="97"/>
       <c r="U135" s="97" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="V135" s="97"/>
       <c r="W135" s="97"/>
@@ -11025,7 +11028,7 @@
       <c r="S136" s="97"/>
       <c r="T136" s="97"/>
       <c r="U136" s="97" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="V136" s="97"/>
       <c r="W136" s="97"/>
@@ -11109,7 +11112,7 @@
       <c r="S139" s="97"/>
       <c r="T139" s="97"/>
       <c r="U139" s="97" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="V139" s="97"/>
       <c r="W139" s="97"/>
@@ -11137,7 +11140,7 @@
       <c r="S140" s="97"/>
       <c r="T140" s="97"/>
       <c r="U140" s="97" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="V140" s="97"/>
       <c r="W140" s="97"/>
@@ -11193,7 +11196,7 @@
       <c r="S142" s="97"/>
       <c r="T142" s="97"/>
       <c r="U142" s="97" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="V142" s="97"/>
       <c r="W142" s="97"/>
@@ -11249,7 +11252,7 @@
       <c r="S144" s="97"/>
       <c r="T144" s="97"/>
       <c r="U144" s="97" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="V144" s="97"/>
       <c r="W144" s="97"/>
@@ -11361,7 +11364,7 @@
       <c r="S148" s="97"/>
       <c r="T148" s="97"/>
       <c r="U148" s="97" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="V148" s="97"/>
       <c r="W148" s="97"/>
@@ -11389,7 +11392,7 @@
       <c r="S149" s="97"/>
       <c r="T149" s="97"/>
       <c r="U149" s="97" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="V149" s="97"/>
       <c r="W149" s="97"/>
@@ -11473,7 +11476,7 @@
       <c r="S152" s="97"/>
       <c r="T152" s="97"/>
       <c r="U152" s="97" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V152" s="97"/>
       <c r="W152" s="97"/>
@@ -11529,7 +11532,7 @@
       <c r="S154" s="97"/>
       <c r="T154" s="97"/>
       <c r="U154" s="97" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="V154" s="97"/>
       <c r="W154" s="97"/>
@@ -11585,7 +11588,7 @@
       <c r="S156" s="97"/>
       <c r="T156" s="97"/>
       <c r="U156" s="97" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V156" s="97"/>
       <c r="W156" s="97"/>
@@ -11697,7 +11700,7 @@
       <c r="S160" s="97"/>
       <c r="T160" s="97"/>
       <c r="U160" s="97" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="V160" s="97"/>
       <c r="W160" s="97"/>
@@ -11837,7 +11840,7 @@
       <c r="S165" s="97"/>
       <c r="T165" s="97"/>
       <c r="U165" s="97" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="V165" s="97"/>
       <c r="W165" s="97"/>
@@ -12229,7 +12232,7 @@
       <c r="S179" s="97"/>
       <c r="T179" s="97"/>
       <c r="U179" s="97" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="V179" s="97"/>
       <c r="W179" s="97"/>
@@ -12257,7 +12260,7 @@
       <c r="S180" s="97"/>
       <c r="T180" s="97"/>
       <c r="U180" s="97" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="V180" s="97"/>
       <c r="W180" s="97"/>
@@ -12285,7 +12288,7 @@
       <c r="S181" s="97"/>
       <c r="T181" s="97"/>
       <c r="U181" s="97" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="V181" s="97"/>
       <c r="W181" s="97"/>
@@ -12537,7 +12540,7 @@
       <c r="S190" s="97"/>
       <c r="T190" s="97"/>
       <c r="U190" s="97" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="V190" s="97"/>
       <c r="W190" s="97"/>
@@ -12733,7 +12736,7 @@
       <c r="S197" s="97"/>
       <c r="T197" s="97"/>
       <c r="U197" s="97" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="V197" s="97"/>
       <c r="W197" s="97"/>
@@ -12761,7 +12764,7 @@
       <c r="S198" s="97"/>
       <c r="T198" s="97"/>
       <c r="U198" s="97" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="V198" s="97"/>
       <c r="W198" s="97"/>
@@ -12789,7 +12792,7 @@
       <c r="S199" s="97"/>
       <c r="T199" s="97"/>
       <c r="U199" s="97" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="V199" s="97"/>
       <c r="W199" s="97"/>
@@ -12929,7 +12932,7 @@
       <c r="S204" s="97"/>
       <c r="T204" s="97"/>
       <c r="U204" s="97" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="V204" s="97"/>
       <c r="W204" s="97"/>
@@ -13097,7 +13100,7 @@
       <c r="S210" s="97"/>
       <c r="T210" s="97"/>
       <c r="U210" s="97" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="V210" s="97"/>
       <c r="W210" s="97"/>
@@ -13153,7 +13156,7 @@
       <c r="S212" s="97"/>
       <c r="T212" s="97"/>
       <c r="U212" s="97" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="V212" s="97"/>
       <c r="W212" s="97"/>
@@ -13209,7 +13212,7 @@
       <c r="S214" s="97"/>
       <c r="T214" s="97"/>
       <c r="U214" s="97" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="V214" s="97"/>
       <c r="W214" s="97"/>
@@ -13237,7 +13240,7 @@
       <c r="S215" s="97"/>
       <c r="T215" s="97"/>
       <c r="U215" s="97" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="V215" s="97"/>
       <c r="W215" s="97"/>
@@ -13265,7 +13268,7 @@
       <c r="S216" s="97"/>
       <c r="T216" s="97"/>
       <c r="U216" s="97" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="V216" s="97"/>
       <c r="W216" s="97"/>
@@ -13461,7 +13464,7 @@
       <c r="S223" s="97"/>
       <c r="T223" s="97"/>
       <c r="U223" s="97" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="V223" s="97"/>
       <c r="W223" s="97"/>
@@ -13517,7 +13520,7 @@
       <c r="S225" s="97"/>
       <c r="T225" s="97"/>
       <c r="U225" s="97" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="V225" s="97"/>
       <c r="W225" s="97"/>
@@ -13601,7 +13604,7 @@
       <c r="S228" s="97"/>
       <c r="T228" s="97"/>
       <c r="U228" s="97" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="V228" s="97"/>
       <c r="W228" s="97"/>
@@ -14133,7 +14136,7 @@
       <c r="S247" s="97"/>
       <c r="T247" s="97"/>
       <c r="U247" s="97" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="V247" s="97"/>
       <c r="W247" s="97"/>
@@ -14273,7 +14276,7 @@
       <c r="S252" s="97"/>
       <c r="T252" s="97"/>
       <c r="U252" s="97" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="V252" s="97"/>
       <c r="W252" s="97"/>
@@ -14301,7 +14304,7 @@
       <c r="S253" s="97"/>
       <c r="T253" s="97"/>
       <c r="U253" s="97" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="V253" s="97"/>
       <c r="W253" s="97"/>
@@ -14329,7 +14332,7 @@
       <c r="S254" s="97"/>
       <c r="T254" s="97"/>
       <c r="U254" s="97" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="V254" s="97"/>
       <c r="W254" s="97"/>
@@ -14497,7 +14500,7 @@
       <c r="S260" s="97"/>
       <c r="T260" s="97"/>
       <c r="U260" s="97" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="V260" s="97"/>
       <c r="W260" s="97"/>
@@ -14637,7 +14640,7 @@
       <c r="S265" s="97"/>
       <c r="T265" s="97"/>
       <c r="U265" s="97" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="V265" s="97"/>
       <c r="W265" s="97"/>
@@ -14693,7 +14696,7 @@
       <c r="S267" s="97"/>
       <c r="T267" s="97"/>
       <c r="U267" s="97" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="V267" s="97"/>
       <c r="W267" s="97"/>
@@ -14889,7 +14892,7 @@
       <c r="S274" s="97"/>
       <c r="T274" s="97"/>
       <c r="U274" s="97" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="V274" s="97"/>
       <c r="W274" s="97"/>
@@ -14945,7 +14948,7 @@
       <c r="S276" s="97"/>
       <c r="T276" s="97"/>
       <c r="U276" s="97" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V276" s="97"/>
       <c r="W276" s="97"/>
@@ -14973,7 +14976,7 @@
       <c r="S277" s="97"/>
       <c r="T277" s="97"/>
       <c r="U277" s="97" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="V277" s="97"/>
       <c r="W277" s="97"/>
@@ -15113,7 +15116,7 @@
       <c r="S282" s="97"/>
       <c r="T282" s="97"/>
       <c r="U282" s="97" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="V282" s="97"/>
       <c r="W282" s="97"/>
@@ -15141,7 +15144,7 @@
       <c r="S283" s="97"/>
       <c r="T283" s="97"/>
       <c r="U283" s="97" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="V283" s="97"/>
       <c r="W283" s="97"/>
@@ -15505,7 +15508,7 @@
       <c r="S296" s="97"/>
       <c r="T296" s="97"/>
       <c r="U296" s="97" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="V296" s="97"/>
       <c r="W296" s="97"/>
@@ -15561,7 +15564,7 @@
       <c r="S298" s="97"/>
       <c r="T298" s="97"/>
       <c r="U298" s="97" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V298" s="97"/>
       <c r="W298" s="97"/>
@@ -15645,7 +15648,7 @@
       <c r="S301" s="97"/>
       <c r="T301" s="97"/>
       <c r="U301" s="97" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="V301" s="97"/>
       <c r="W301" s="97"/>
@@ -15673,7 +15676,7 @@
       <c r="S302" s="97"/>
       <c r="T302" s="97"/>
       <c r="U302" s="97" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="V302" s="97"/>
       <c r="W302" s="97"/>
@@ -15729,7 +15732,7 @@
       <c r="S304" s="97"/>
       <c r="T304" s="97"/>
       <c r="U304" s="97" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="V304" s="97"/>
       <c r="W304" s="97"/>
@@ -15813,7 +15816,7 @@
       <c r="S307" s="97"/>
       <c r="T307" s="97"/>
       <c r="U307" s="97" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="V307" s="97"/>
       <c r="W307" s="97"/>
@@ -16037,7 +16040,7 @@
       <c r="S315" s="97"/>
       <c r="T315" s="97"/>
       <c r="U315" s="97" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="V315" s="97"/>
       <c r="W315" s="97"/>
@@ -16121,7 +16124,7 @@
       <c r="S318" s="97"/>
       <c r="T318" s="97"/>
       <c r="U318" s="97" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="V318" s="97"/>
       <c r="W318" s="97"/>
@@ -16149,7 +16152,7 @@
       <c r="S319" s="97"/>
       <c r="T319" s="97"/>
       <c r="U319" s="97" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="V319" s="97"/>
       <c r="W319" s="97"/>
@@ -16401,7 +16404,7 @@
       <c r="S328" s="97"/>
       <c r="T328" s="97"/>
       <c r="U328" s="97" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="V328" s="97"/>
       <c r="W328" s="97"/>
@@ -16485,7 +16488,7 @@
       <c r="S331" s="97"/>
       <c r="T331" s="97"/>
       <c r="U331" s="97" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="V331" s="97"/>
       <c r="W331" s="97"/>
@@ -16541,7 +16544,7 @@
       <c r="S333" s="97"/>
       <c r="T333" s="97"/>
       <c r="U333" s="97" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="V333" s="97"/>
       <c r="W333" s="97"/>
@@ -16821,7 +16824,7 @@
       <c r="S343" s="97"/>
       <c r="T343" s="97"/>
       <c r="U343" s="97" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V343" s="97"/>
       <c r="W343" s="97"/>
@@ -16849,7 +16852,7 @@
       <c r="S344" s="97"/>
       <c r="T344" s="97"/>
       <c r="U344" s="97" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="V344" s="97"/>
       <c r="W344" s="97"/>
@@ -16961,7 +16964,7 @@
       <c r="S348" s="97"/>
       <c r="T348" s="97"/>
       <c r="U348" s="97" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="V348" s="97"/>
       <c r="W348" s="97"/>
@@ -16989,7 +16992,7 @@
       <c r="S349" s="97"/>
       <c r="T349" s="97"/>
       <c r="U349" s="97" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="V349" s="97"/>
       <c r="W349" s="97"/>
@@ -17017,7 +17020,7 @@
       <c r="S350" s="97"/>
       <c r="T350" s="97"/>
       <c r="U350" s="97" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="V350" s="97"/>
       <c r="W350" s="97"/>
@@ -17129,7 +17132,7 @@
       <c r="S354" s="97"/>
       <c r="T354" s="97"/>
       <c r="U354" s="97" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="V354" s="97"/>
       <c r="W354" s="97"/>
@@ -17241,7 +17244,7 @@
       <c r="S358" s="97"/>
       <c r="T358" s="97"/>
       <c r="U358" s="97" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="V358" s="97"/>
       <c r="W358" s="97"/>
@@ -17409,7 +17412,7 @@
       <c r="S364" s="97"/>
       <c r="T364" s="97"/>
       <c r="U364" s="97" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="V364" s="97"/>
       <c r="W364" s="97"/>
@@ -17577,7 +17580,7 @@
       <c r="S370" s="97"/>
       <c r="T370" s="97"/>
       <c r="U370" s="97" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="V370" s="97"/>
       <c r="W370" s="97"/>
@@ -17605,7 +17608,7 @@
       <c r="S371" s="97"/>
       <c r="T371" s="97"/>
       <c r="U371" s="97" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="V371" s="97"/>
       <c r="W371" s="97"/>
@@ -17773,7 +17776,7 @@
       <c r="S377" s="97"/>
       <c r="T377" s="97"/>
       <c r="U377" s="97" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="V377" s="97"/>
       <c r="W377" s="97"/>
@@ -17829,7 +17832,7 @@
       <c r="S379" s="97"/>
       <c r="T379" s="97"/>
       <c r="U379" s="97" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="V379" s="97"/>
       <c r="W379" s="97"/>
@@ -18305,7 +18308,7 @@
       <c r="S396" s="97"/>
       <c r="T396" s="97"/>
       <c r="U396" s="97" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="V396" s="97"/>
       <c r="W396" s="97"/>
@@ -18417,7 +18420,7 @@
       <c r="S400" s="97"/>
       <c r="T400" s="97"/>
       <c r="U400" s="97" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="V400" s="97"/>
       <c r="W400" s="97"/>
@@ -18445,7 +18448,7 @@
       <c r="S401" s="97"/>
       <c r="T401" s="97"/>
       <c r="U401" s="97" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V401" s="97"/>
       <c r="W401" s="97"/>
@@ -18501,7 +18504,7 @@
       <c r="S403" s="97"/>
       <c r="T403" s="97"/>
       <c r="U403" s="97" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="V403" s="97"/>
       <c r="W403" s="97"/>
@@ -18753,7 +18756,7 @@
       <c r="S412" s="97"/>
       <c r="T412" s="97"/>
       <c r="U412" s="97" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V412" s="97"/>
       <c r="W412" s="97"/>
@@ -18781,7 +18784,7 @@
       <c r="S413" s="97"/>
       <c r="T413" s="97"/>
       <c r="U413" s="97" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="V413" s="97"/>
       <c r="W413" s="97"/>
@@ -19201,7 +19204,7 @@
       <c r="S428" s="97"/>
       <c r="T428" s="97"/>
       <c r="U428" s="97" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="V428" s="97"/>
       <c r="W428" s="97"/>
@@ -19257,7 +19260,7 @@
       <c r="S430" s="97"/>
       <c r="T430" s="97"/>
       <c r="U430" s="97" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="V430" s="97"/>
       <c r="W430" s="97"/>
@@ -19453,7 +19456,7 @@
       <c r="S437" s="97"/>
       <c r="T437" s="97"/>
       <c r="U437" s="97" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="V437" s="97"/>
       <c r="W437" s="97"/>
@@ -19705,7 +19708,7 @@
       <c r="S446" s="97"/>
       <c r="T446" s="97"/>
       <c r="U446" s="97" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="V446" s="97"/>
       <c r="W446" s="97"/>
@@ -19761,7 +19764,7 @@
       <c r="S448" s="97"/>
       <c r="T448" s="97"/>
       <c r="U448" s="97" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="V448" s="97"/>
       <c r="W448" s="97"/>
@@ -20013,7 +20016,7 @@
       <c r="S457" s="97"/>
       <c r="T457" s="97"/>
       <c r="U457" s="97" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="V457" s="97"/>
       <c r="W457" s="97"/>
@@ -20237,7 +20240,7 @@
       <c r="S465" s="97"/>
       <c r="T465" s="97"/>
       <c r="U465" s="97" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="V465" s="97"/>
       <c r="W465" s="97"/>
@@ -20517,7 +20520,7 @@
       <c r="S475" s="97"/>
       <c r="T475" s="97"/>
       <c r="U475" s="97" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="V475" s="97"/>
       <c r="W475" s="97"/>
@@ -20545,7 +20548,7 @@
       <c r="S476" s="97"/>
       <c r="T476" s="97"/>
       <c r="U476" s="97" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="V476" s="97"/>
       <c r="W476" s="97"/>
@@ -20990,23 +20993,23 @@
     <sortCondition ref="T5"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
-      <selection activeCell="I21" sqref="I21"/>
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70">
+      <selection activeCell="H4" sqref="H4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" topLeftCell="C1">
+      <selection activeCell="F5" sqref="F5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" topLeftCell="A2">
       <selection activeCell="L8" sqref="L8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="80" topLeftCell="C1">
-      <selection activeCell="F5" sqref="F5"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="70">
-      <selection activeCell="H4" sqref="H4"/>
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="80" topLeftCell="E1">
+      <selection activeCell="I21" sqref="I21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -21024,7 +21027,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E12"/>
     </sheetView>
@@ -21041,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="C1" s="84" t="s">
         <v>602</v>
@@ -21050,7 +21053,7 @@
         <v>603</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -21142,16 +21145,16 @@
         <v>15</v>
       </c>
       <c r="B8" s="91" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D8" s="91" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.2">
@@ -21160,13 +21163,13 @@
         <v>58</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -21175,13 +21178,13 @@
         <v>58</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -21200,25 +21203,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="55" showGridLines="0">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="55" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" showGridLines="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="80" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="55" showGridLines="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="55" showGridLines="0">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="55" showGridLines="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24036,22 +24039,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="F21" sqref="F21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -27722,22 +27725,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" state="hidden">
       <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -34736,22 +34739,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden">
       <selection activeCell="P9" activeCellId="1" sqref="G9 P9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -42828,22 +42831,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" hiddenColumns="1" state="hidden" topLeftCell="L1">
       <selection activeCell="Q1" activeCellId="3" sqref="A1:A65536 H1:H65536 L1:N65536 Q1:V65536"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -43366,25 +43369,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43811,25 +43814,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <customSheetViews>
-    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{03B04745-F29E-4E26-B62E-F0D2264078A4}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{DEC7CBE2-9713-4252-8444-1D6959C164AB}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{853B6239-A439-411F-9927-AA08BF431DBB}" scale="75" showGridLines="0" state="hidden">
+    <customSheetView guid="{9F9DAF4D-D2EF-4660-943E-0C19C13C2663}" scale="75" showGridLines="0" state="hidden">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43861,6 +43864,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </AssignedTo>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006CE8352A0AF1CD4AB9B3521FB05BB06E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe27245e9bb914202a9dc14def4cd737">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc9fd5b5-cf46-4eda-9201-7118bc1c1603" xmlns:ns3="bcd33c6e-30cb-4633-b8ec-d716de95c77b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8902f26a47aaca738f2017df961ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
@@ -44091,44 +44117,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <AssignedTo xmlns="cc9fd5b5-cf46-4eda-9201-7118bc1c1603">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </AssignedTo>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
-    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44151,9 +44143,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CEE68A9-1E3D-4013-A8AF-E88F960C4957}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF79EA6D-2196-4B94-BF37-7CE4AD2619E6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc9fd5b5-cf46-4eda-9201-7118bc1c1603"/>
+    <ds:schemaRef ds:uri="bcd33c6e-30cb-4633-b8ec-d716de95c77b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>